--- a/resource/pre_info_new_back.xlsx
+++ b/resource/pre_info_new_back.xlsx
@@ -9,15 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="460" windowWidth="26780" windowHeight="13960" tabRatio="777" activeTab="1"/>
+    <workbookView xWindow="3300" yWindow="460" windowWidth="26240" windowHeight="21140" tabRatio="777" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="news" sheetId="10" r:id="rId1"/>
-    <sheet name="sales_rep" sheetId="8" r:id="rId2"/>
-    <sheet name="product" sheetId="2" r:id="rId3"/>
-    <sheet name="hospital" sheetId="12" r:id="rId4"/>
+    <sheet name="sales_rep" sheetId="1" r:id="rId1"/>
+    <sheet name="product" sheetId="2" r:id="rId2"/>
+    <sheet name="hospital" sheetId="3" r:id="rId3"/>
+    <sheet name="news" sheetId="5" r:id="rId4"/>
     <sheet name="promotion_budget" sheetId="7" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">hospital!$A$1:$K$41</definedName>
+  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="113">
   <si>
     <t>业务代表</t>
   </si>
@@ -274,6 +277,9 @@
   </si>
   <si>
     <t>这是一家三级医院。1200张病床。外科和呼吸科很强，抗生素使用量很大。内分泌科病人量大。降糖药使用较多。最近院内临床观察结果公布，证明三代降糖药效果突出，医生逐步替代一代降糖药。</t>
+  </si>
+  <si>
+    <t>这是一家三级医院。1000张病床。外科和呼吸科很强，抗生素使用量很大。内分泌科病人量大。降糖药使用较多。最近院内临床观察结果公布，证明三代降糖药效果突出，医生逐步替代一代降糖药。</t>
   </si>
   <si>
     <t>新的皮肤病用药进入医院开始销售，推动皮肤市场增长</t>
@@ -326,10 +332,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>上期销售额(元)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>这是一家三级医院。700张病床。医院目前处于高速发展中，正在扩建外科大楼，将带来明显的病人增长，目标建立全国皮肤研究中心，打造皮肤科研能力，是皮肤领域的最大医院。作为综合医院，抗生素和糖尿病产品也使用。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -362,71 +364,35 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>周期3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>口服抗生素</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一代降糖药</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三代降糖药</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮肤药</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>医院</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是一家三级医院。1000张病床。外科和呼吸科很强，抗生素使用量很大。内分泌科病人量大。降糖药使用较多。最近院内临床观察结果公布，证明三代降糖药效果突出，医生逐步替代一代降糖药。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>人民医院</t>
+    <t>上期总销售额(元)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -434,12 +400,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -473,19 +441,34 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -523,9 +506,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -533,7 +519,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -551,44 +546,38 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -893,689 +882,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="11"/>
-    <col min="2" max="2" width="52.83203125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="37.83203125" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="140" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="13">
-        <v>715197</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="56" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="13">
-        <v>412673</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="13">
-        <v>499788</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="84" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="13">
-        <v>987461</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="70" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="13">
-        <v>154049</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="13">
-        <v>469800</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="13">
-        <v>262979</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="56" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="13">
-        <v>132676</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="13">
-        <v>104464</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="56" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1066841</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="21"/>
-    <col min="2" max="2" width="29" style="21" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="23" style="21" customWidth="1"/>
-    <col min="7" max="7" width="24.1640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="29.5" style="21" customWidth="1"/>
-    <col min="11" max="11" width="29" style="21" customWidth="1"/>
-    <col min="12" max="12" width="29.33203125" style="21" customWidth="1"/>
-    <col min="13" max="13" width="39.6640625" style="21" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="135" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="19">
-        <v>2910</v>
-      </c>
-      <c r="G2" s="19">
-        <v>230000</v>
-      </c>
-      <c r="H2" s="20">
-        <v>8000000</v>
-      </c>
-      <c r="I2" s="19">
-        <v>70</v>
-      </c>
-      <c r="J2" s="19">
-        <v>70</v>
-      </c>
-      <c r="K2" s="19">
-        <v>45</v>
-      </c>
-      <c r="L2" s="19">
-        <v>0</v>
-      </c>
-      <c r="M2" s="19">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="120" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="19">
-        <v>2080</v>
-      </c>
-      <c r="G3" s="19">
-        <v>160000</v>
-      </c>
-      <c r="H3" s="20">
-        <v>5600000</v>
-      </c>
-      <c r="I3" s="19">
-        <v>60</v>
-      </c>
-      <c r="J3" s="19">
-        <v>68</v>
-      </c>
-      <c r="K3" s="19">
-        <v>60</v>
-      </c>
-      <c r="L3" s="19">
-        <v>0</v>
-      </c>
-      <c r="M3" s="19">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="135" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="19">
-        <v>1132</v>
-      </c>
-      <c r="G4" s="19">
-        <v>87000</v>
-      </c>
-      <c r="H4" s="20">
-        <v>1500000</v>
-      </c>
-      <c r="I4" s="19">
-        <v>20</v>
-      </c>
-      <c r="J4" s="19">
-        <v>40</v>
-      </c>
-      <c r="K4" s="19">
-        <v>60</v>
-      </c>
-      <c r="L4" s="19">
-        <v>0</v>
-      </c>
-      <c r="M4" s="19">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="165" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="19">
-        <v>794</v>
-      </c>
-      <c r="G5" s="19">
-        <v>61300</v>
-      </c>
-      <c r="H5" s="20">
-        <v>1000000</v>
-      </c>
-      <c r="I5" s="19">
-        <v>10</v>
-      </c>
-      <c r="J5" s="19">
-        <v>19</v>
-      </c>
-      <c r="K5" s="19">
-        <v>60</v>
-      </c>
-      <c r="L5" s="19">
-        <v>0</v>
-      </c>
-      <c r="M5" s="19">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="19">
-        <v>1686</v>
-      </c>
-      <c r="G6" s="19">
-        <v>130000</v>
-      </c>
-      <c r="H6" s="20">
-        <v>5000000</v>
-      </c>
-      <c r="I6" s="19">
-        <v>45</v>
-      </c>
-      <c r="J6" s="19">
-        <v>55</v>
-      </c>
-      <c r="K6" s="19">
-        <v>55</v>
-      </c>
-      <c r="L6" s="19">
-        <v>0</v>
-      </c>
-      <c r="M6" s="19">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="47.6640625" customWidth="1"/>
+    <col min="2" max="5" width="8.83203125" style="1"/>
+    <col min="12" max="12" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="5" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="180" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2910</v>
+      </c>
+      <c r="G2" s="6">
+        <v>230000</v>
+      </c>
+      <c r="H2" s="7">
+        <v>8000000</v>
+      </c>
+      <c r="I2" s="6">
+        <v>70</v>
+      </c>
+      <c r="J2" s="6">
+        <v>70</v>
+      </c>
+      <c r="K2" s="6">
+        <v>45</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="150" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2080</v>
+      </c>
+      <c r="G3" s="6">
+        <v>160000</v>
+      </c>
+      <c r="H3" s="7">
+        <v>5600000</v>
+      </c>
+      <c r="I3" s="6">
+        <v>60</v>
+      </c>
+      <c r="J3" s="6">
+        <v>68</v>
+      </c>
+      <c r="K3" s="6">
+        <v>60</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="165" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1132</v>
+      </c>
+      <c r="G4" s="6">
+        <v>87000</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1500000</v>
+      </c>
+      <c r="I4" s="6">
+        <v>20</v>
+      </c>
+      <c r="J4" s="6">
         <v>40</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E2" s="7">
-        <v>89</v>
-      </c>
-      <c r="F2" s="7">
-        <v>44</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="K4" s="6">
+        <v>60</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="195" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="6">
+        <v>794</v>
+      </c>
+      <c r="G5" s="6">
+        <v>61300</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="I5" s="6">
+        <v>10</v>
+      </c>
+      <c r="J5" s="6">
+        <v>19</v>
+      </c>
+      <c r="K5" s="6">
+        <v>60</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1686</v>
+      </c>
+      <c r="G6" s="6">
+        <v>130000</v>
+      </c>
+      <c r="H6" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="I6" s="6">
         <v>45</v>
       </c>
-      <c r="I2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2003</v>
-      </c>
-      <c r="E3" s="7">
-        <v>65</v>
-      </c>
-      <c r="F3" s="7">
-        <v>31</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2011</v>
-      </c>
-      <c r="E4" s="7">
-        <v>95</v>
-      </c>
-      <c r="F4" s="7">
-        <v>30</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2017</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="J6" s="6">
         <v>55</v>
       </c>
-      <c r="F5" s="7">
-        <v>11</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" t="s">
-        <v>103</v>
+      <c r="K6" s="6">
+        <v>55</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1585,18 +1147,189 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="11">
+        <v>89</v>
+      </c>
+      <c r="F2" s="11">
+        <v>44</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2003</v>
+      </c>
+      <c r="E3" s="11">
+        <v>65</v>
+      </c>
+      <c r="F3" s="11">
+        <v>31</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2011</v>
+      </c>
+      <c r="E4" s="11">
+        <v>95</v>
+      </c>
+      <c r="F4" s="11">
+        <v>30</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2017</v>
+      </c>
+      <c r="E5" s="11">
+        <v>55</v>
+      </c>
+      <c r="F5" s="11">
+        <v>11</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="H5" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="13" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="13" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
@@ -1618,7 +1351,7 @@
       <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="15" t="s">
         <v>59</v>
       </c>
       <c r="H1" s="15" t="s">
@@ -1628,13 +1361,13 @@
         <v>61</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1653,19 +1386,19 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="15">
         <v>6600000.0000000009</v>
       </c>
-      <c r="H2" s="15">
-        <v>5940000</v>
-      </c>
-      <c r="I2" s="15">
+      <c r="H2" s="16">
+        <v>5940000.0000000009</v>
+      </c>
+      <c r="I2" s="16">
         <v>5280000</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="16">
         <v>5940000.0000000009</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="16">
         <v>5280000</v>
       </c>
     </row>
@@ -1688,7 +1421,7 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="15">
         <v>2200000</v>
       </c>
       <c r="H3" s="15">
@@ -1704,7 +1437,7 @@
         <v>1232000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1723,23 +1456,23 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="15">
         <v>1320000</v>
       </c>
-      <c r="H4" s="15">
-        <v>1628000</v>
-      </c>
-      <c r="I4" s="15">
+      <c r="H4" s="16">
+        <v>1628000.0000000002</v>
+      </c>
+      <c r="I4" s="16">
         <v>1923900.0000000002</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="16">
         <v>1628000.0000000002</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="16">
         <v>1923900.0000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -1758,23 +1491,27 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="15">
         <v>200000</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="16">
+        <f>G5*1.2</f>
         <v>240000</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="16">
+        <f>H5*1.45</f>
         <v>348000</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="16">
+        <f>I5*1.2</f>
         <v>417600</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="16">
+        <f>J5*1.45</f>
         <v>605520</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1793,30 +1530,30 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="15">
         <v>2500000</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="16">
         <v>2100000</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="16">
         <v>1850000</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="16">
         <v>2100000</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="16">
         <v>1850000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>67</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="17" t="s">
         <v>70</v>
       </c>
       <c r="D7" t="s">
@@ -1828,7 +1565,7 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="15">
         <v>1000000</v>
       </c>
       <c r="H7" s="15">
@@ -1844,14 +1581,14 @@
         <v>918000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>67</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="17" t="s">
         <v>70</v>
       </c>
       <c r="D8" t="s">
@@ -1863,30 +1600,30 @@
       <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="15">
         <v>300000</v>
       </c>
       <c r="H8" s="15">
         <v>306000</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="16">
         <v>322120</v>
       </c>
       <c r="J8" s="15">
         <v>306000</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="16">
         <v>322120</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>67</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="17" t="s">
         <v>70</v>
       </c>
       <c r="D9" t="s">
@@ -1898,23 +1635,27 @@
       <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="15">
         <v>100000</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="16">
+        <f>G9*1.2</f>
         <v>120000</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="16">
+        <f>H9*1.5</f>
         <v>180000</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="16">
+        <f>I9*1.2</f>
         <v>216000</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="16">
+        <f>J9*1.5</f>
         <v>324000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -1933,19 +1674,19 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="15">
         <v>4180000.0000000005</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="18">
         <v>5016000</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="18">
         <v>6520800.0000000009</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="18">
         <v>5016000</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="18">
         <v>6520800.0000000009</v>
       </c>
     </row>
@@ -1968,7 +1709,7 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="15">
         <v>1320000</v>
       </c>
       <c r="H11" s="15">
@@ -2003,7 +1744,7 @@
       <c r="F12">
         <v>3</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="15">
         <v>660000</v>
       </c>
       <c r="H12" s="15">
@@ -2019,7 +1760,7 @@
         <v>1386000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -2038,23 +1779,25 @@
       <c r="F13">
         <v>4</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="15">
         <v>1000000</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="16">
         <v>1200000</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="16">
+        <f>H13*1.4</f>
         <v>1680000</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="16">
         <v>1200000</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="16">
+        <f>J13*1.4</f>
         <v>1680000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -2073,19 +1816,19 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="15">
         <v>3500000</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="16">
         <v>3300000</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="16">
         <v>3100000</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="16">
         <v>3300000</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="16">
         <v>3100000</v>
       </c>
     </row>
@@ -2108,7 +1851,7 @@
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="15">
         <v>1200000</v>
       </c>
       <c r="H15" s="15">
@@ -2124,7 +1867,7 @@
         <v>912000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -2143,23 +1886,23 @@
       <c r="F16">
         <v>3</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="15">
         <v>600000</v>
       </c>
       <c r="H16" s="15">
         <v>680000</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="16">
         <v>956000</v>
       </c>
       <c r="J16" s="15">
         <v>680000</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="16">
         <v>956000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -2178,23 +1921,25 @@
       <c r="F17">
         <v>4</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="15">
         <v>120000</v>
       </c>
       <c r="H17" s="15">
         <v>132000</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="16">
+        <f>H17*1.1</f>
         <v>145200</v>
       </c>
       <c r="J17" s="15">
         <v>132000</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="16">
+        <f>J17*1.1</f>
         <v>145200</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -2213,19 +1958,19 @@
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="15">
         <v>900000</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="16">
         <v>800000</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="16">
         <v>700000</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="16">
         <v>800000</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="16">
         <v>700000</v>
       </c>
     </row>
@@ -2248,7 +1993,7 @@
       <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="15">
         <v>600000</v>
       </c>
       <c r="H19" s="15">
@@ -2283,7 +2028,7 @@
       <c r="F20">
         <v>3</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="15">
         <v>200000</v>
       </c>
       <c r="H20" s="15">
@@ -2299,7 +2044,7 @@
         <v>242000</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -2318,23 +2063,25 @@
       <c r="F21">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="15">
         <v>60000</v>
       </c>
       <c r="H21" s="15">
         <v>66000</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="16">
+        <f>H21*1.1</f>
         <v>72600</v>
       </c>
       <c r="J21" s="15">
         <v>66000</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="16">
+        <f>J21*1.1</f>
         <v>72600</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -2353,19 +2100,19 @@
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="15">
         <v>3600000</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="16">
         <v>3500000</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="16">
         <v>2033600</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="16">
         <v>3500000</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="16">
         <v>2033600</v>
       </c>
     </row>
@@ -2388,7 +2135,7 @@
       <c r="F23">
         <v>2</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="15">
         <v>720000</v>
       </c>
       <c r="H23" s="15">
@@ -2423,7 +2170,7 @@
       <c r="F24">
         <v>3</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="15">
         <v>250000</v>
       </c>
       <c r="H24" s="15">
@@ -2458,8 +2205,13 @@
       <c r="F25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -2478,19 +2230,19 @@
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="15">
         <v>800000</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="16">
         <v>730000</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="16">
         <v>709600</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="16">
         <v>730000</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="16">
         <v>709600</v>
       </c>
     </row>
@@ -2513,7 +2265,7 @@
       <c r="F27">
         <v>2</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="15">
         <v>750000</v>
       </c>
       <c r="H27" s="15">
@@ -2548,7 +2300,7 @@
       <c r="F28">
         <v>3</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="15">
         <v>360000</v>
       </c>
       <c r="H28" s="15">
@@ -2583,8 +2335,13 @@
       <c r="F29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -2603,19 +2360,19 @@
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="15">
         <v>420000</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="18">
         <v>483000</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="18">
         <v>507150</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="18">
         <v>483000</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="18">
         <v>507150</v>
       </c>
     </row>
@@ -2638,7 +2395,7 @@
       <c r="F31">
         <v>2</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="15">
         <v>432000</v>
       </c>
       <c r="H31" s="15">
@@ -2654,7 +2411,7 @@
         <v>432000</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2673,19 +2430,19 @@
       <c r="F32">
         <v>3</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="15">
         <v>100000</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="16">
         <v>120000</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="16">
         <v>150000</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="16">
         <v>120000</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="16">
         <v>150000</v>
       </c>
     </row>
@@ -2708,7 +2465,7 @@
       <c r="F33">
         <v>4</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="15">
         <v>290000</v>
       </c>
       <c r="H33" s="15">
@@ -2724,7 +2481,7 @@
         <v>565500</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -2743,19 +2500,19 @@
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="15">
         <v>400000</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="16">
         <v>362000</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="16">
         <v>314160</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="16">
         <v>362000</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K34" s="16">
         <v>314160</v>
       </c>
     </row>
@@ -2778,7 +2535,7 @@
       <c r="F35">
         <v>2</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="15">
         <v>380000</v>
       </c>
       <c r="H35" s="15">
@@ -2794,7 +2551,7 @@
         <v>410970</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -2813,19 +2570,19 @@
       <c r="F36">
         <v>3</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="15">
         <v>40000</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="16">
         <v>49000</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I36" s="16">
         <v>56200</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J36" s="16">
         <v>49000</v>
       </c>
-      <c r="K36" s="15">
+      <c r="K36" s="16">
         <v>56200</v>
       </c>
     </row>
@@ -2848,8 +2605,13 @@
       <c r="F37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -2868,23 +2630,23 @@
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="15">
         <v>7480000.0000000009</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="18">
         <v>7031200.0000000009</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I38" s="18">
         <v>6117144.0000000009</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J38" s="18">
         <v>7031200.0000000009</v>
       </c>
-      <c r="K38" s="15">
+      <c r="K38" s="18">
         <v>6117144.0000000009</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2903,23 +2665,23 @@
       <c r="F39">
         <v>2</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="15">
         <v>2090000.0000000002</v>
       </c>
       <c r="H39" s="15">
         <v>1860100.0000000002</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I39" s="16">
         <v>1657095.0000000002</v>
       </c>
       <c r="J39" s="15">
         <v>1860100.0000000002</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K39" s="16">
         <v>1657095.0000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -2938,19 +2700,19 @@
       <c r="F40">
         <v>3</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="15">
         <v>1650000.0000000002</v>
       </c>
       <c r="H40" s="15">
         <v>1980000.0000000002</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="16">
         <v>2486000</v>
       </c>
       <c r="J40" s="15">
         <v>1980000.0000000002</v>
       </c>
-      <c r="K40" s="15">
+      <c r="K40" s="16">
         <v>2486000</v>
       </c>
     </row>
@@ -2973,7 +2735,7 @@
       <c r="F41">
         <v>4</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="15">
         <v>250000</v>
       </c>
       <c r="H41" s="15">
@@ -2990,8 +2752,365 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K41"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="I9:J9 I5:J5" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="36.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" customWidth="1"/>
+    <col min="9" max="9" width="33.6640625" customWidth="1"/>
+    <col min="10" max="10" width="30.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="70" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="22">
+        <f>SUM(D2:F2)</f>
+        <v>715197</v>
+      </c>
+      <c r="D2" s="22">
+        <v>313621</v>
+      </c>
+      <c r="E2" s="22">
+        <v>194220</v>
+      </c>
+      <c r="F2" s="22">
+        <v>207356</v>
+      </c>
+      <c r="G2" s="22">
+        <v>0</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" ht="70" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="22">
+        <f t="shared" ref="C3:C11" si="0">SUM(D3:F3)</f>
+        <v>412673</v>
+      </c>
+      <c r="D3" s="22">
+        <v>235680</v>
+      </c>
+      <c r="E3" s="22">
+        <v>116161</v>
+      </c>
+      <c r="F3" s="22">
+        <v>60832</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" ht="84" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="22">
+        <f t="shared" si="0"/>
+        <v>499788</v>
+      </c>
+      <c r="D4" s="22">
+        <v>325492</v>
+      </c>
+      <c r="E4" s="22">
+        <v>96727</v>
+      </c>
+      <c r="F4" s="22">
+        <v>77569</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="22">
+        <f t="shared" si="0"/>
+        <v>987461</v>
+      </c>
+      <c r="D5" s="22">
+        <v>612097</v>
+      </c>
+      <c r="E5" s="22">
+        <v>239623</v>
+      </c>
+      <c r="F5" s="22">
+        <v>135741</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="70" x14ac:dyDescent="0.15">
+      <c r="A6" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="22">
+        <f t="shared" si="0"/>
+        <v>154049</v>
+      </c>
+      <c r="D6" s="22">
+        <v>39174</v>
+      </c>
+      <c r="E6" s="22">
+        <v>84037</v>
+      </c>
+      <c r="F6" s="22">
+        <v>30838</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="22">
+        <f t="shared" si="0"/>
+        <v>469800</v>
+      </c>
+      <c r="D7" s="22">
+        <v>359538</v>
+      </c>
+      <c r="E7" s="22">
+        <v>71578</v>
+      </c>
+      <c r="F7" s="22">
+        <v>38684</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+      <c r="A8" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="22">
+        <f t="shared" si="0"/>
+        <v>262979</v>
+      </c>
+      <c r="D8" s="22">
+        <v>108464</v>
+      </c>
+      <c r="E8" s="22">
+        <v>97941</v>
+      </c>
+      <c r="F8" s="22">
+        <v>56574</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" ht="70" x14ac:dyDescent="0.15">
+      <c r="A9" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="22">
+        <f t="shared" si="0"/>
+        <v>132676</v>
+      </c>
+      <c r="D9" s="22">
+        <v>31748</v>
+      </c>
+      <c r="E9" s="22">
+        <v>83664</v>
+      </c>
+      <c r="F9" s="22">
+        <v>17264</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="22">
+        <f t="shared" si="0"/>
+        <v>104464</v>
+      </c>
+      <c r="D10" s="22">
+        <v>27327</v>
+      </c>
+      <c r="E10" s="22">
+        <v>67351</v>
+      </c>
+      <c r="F10" s="22">
+        <v>9786</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="70" x14ac:dyDescent="0.15">
+      <c r="A11" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="22">
+        <f t="shared" si="0"/>
+        <v>1066841</v>
+      </c>
+      <c r="D11" s="22">
+        <v>370511</v>
+      </c>
+      <c r="E11" s="22">
+        <v>355266</v>
+      </c>
+      <c r="F11" s="22">
+        <v>341064</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3000,17 +3119,17 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
